--- a/testOutput/ProgramOutput02.xlsx
+++ b/testOutput/ProgramOutput02.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="25">
   <si>
     <t>Family Health Insurance</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>₹2,788</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>₹2,874</t>
+  </si>
+  <si>
+    <t>₹3,484</t>
   </si>
 </sst>
 </file>
@@ -528,23 +540,23 @@
         <v>12</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testOutput/ProgramOutput02.xlsx
+++ b/testOutput/ProgramOutput02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2266897\eclipse-workspace\SeleniumNG2_obRepo\test-output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2266897\eclipse-workspace\pbazaar\testOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2EDE45-AE72-4746-9B50-9ED1CD299D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE15ED53-B0C7-4F11-9545-665CBE95466F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="20">
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>₹2,788</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>₹2,874</t>
+  </si>
+  <si>
+    <t>Care Health</t>
+  </si>
+  <si>
+    <t>₹3,484</t>
+  </si>
+  <si>
+    <t>Error Message for any invalid field</t>
+  </si>
+  <si>
+    <t>Please enter valid email address</t>
+  </si>
   <si>
     <t>Family Health Insurance</t>
   </si>
@@ -64,45 +88,6 @@
   </si>
   <si>
     <t>Health Insurance Claim</t>
-  </si>
-  <si>
-    <t>Reliance</t>
-  </si>
-  <si>
-    <t>₹1,514</t>
-  </si>
-  <si>
-    <t>Care Health</t>
-  </si>
-  <si>
-    <t>₹2,156</t>
-  </si>
-  <si>
-    <t>Tata AIG</t>
-  </si>
-  <si>
-    <t>₹2,764</t>
-  </si>
-  <si>
-    <t>Error Message for any invalid field</t>
-  </si>
-  <si>
-    <t>Please enter valid email address</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>₹2,788</t>
-  </si>
-  <si>
-    <t>Bajaj Allianz</t>
-  </si>
-  <si>
-    <t>₹2,874</t>
-  </si>
-  <si>
-    <t>₹3,484</t>
   </si>
 </sst>
 </file>
@@ -425,7 +410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -435,128 +420,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3156947E-3971-4A2E-915C-F08356DCF42D}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7C4067-FE65-45AC-848E-3083A86C4370}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9F6AC-5B3A-4367-91BB-914C180F9587}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7C4067-FE65-45AC-848E-3083A86C4370}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9F6AC-5B3A-4367-91BB-914C180F9587}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testOutput/ProgramOutput02.xlsx
+++ b/testOutput/ProgramOutput02.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="20">
   <si>
     <t>Reliance</t>
   </si>

--- a/testOutput/ProgramOutput02.xlsx
+++ b/testOutput/ProgramOutput02.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="20">
   <si>
     <t>Reliance</t>
   </si>
